--- a/analysis_HLC/raw_data/TFE_hardness.xlsx
+++ b/analysis_HLC/raw_data/TFE_hardness.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
   <si>
     <t xml:space="preserve">Equotip measurement </t>
   </si>
@@ -27,7 +27,313 @@
     <t>hardness in HLC</t>
   </si>
   <si>
-    <t>MU-278</t>
+    <t>F1-1</t>
+  </si>
+  <si>
+    <t>961.8</t>
+  </si>
+  <si>
+    <t>F1-2</t>
+  </si>
+  <si>
+    <t>F1-3</t>
+  </si>
+  <si>
+    <t>F1-4</t>
+  </si>
+  <si>
+    <t>F1-5</t>
+  </si>
+  <si>
+    <t>957.4</t>
+  </si>
+  <si>
+    <t>946.7</t>
+  </si>
+  <si>
+    <t>944.1</t>
+  </si>
+  <si>
+    <t>965.0</t>
+  </si>
+  <si>
+    <t>F2-1</t>
+  </si>
+  <si>
+    <t>F2-2</t>
+  </si>
+  <si>
+    <t>F2-3</t>
+  </si>
+  <si>
+    <t>F2-4</t>
+  </si>
+  <si>
+    <t>F2-5</t>
+  </si>
+  <si>
+    <t>F2-6</t>
+  </si>
+  <si>
+    <t>956.0</t>
+  </si>
+  <si>
+    <t>964.7</t>
+  </si>
+  <si>
+    <t>960.9</t>
+  </si>
+  <si>
+    <t>960.8</t>
+  </si>
+  <si>
+    <t>965.4</t>
+  </si>
+  <si>
+    <t>958.6</t>
+  </si>
+  <si>
+    <t>SH1-1</t>
+  </si>
+  <si>
+    <t>915.5</t>
+  </si>
+  <si>
+    <t>SH1-2</t>
+  </si>
+  <si>
+    <t>SH1-3</t>
+  </si>
+  <si>
+    <t>SH1-4</t>
+  </si>
+  <si>
+    <t>902.3</t>
+  </si>
+  <si>
+    <t>872.5</t>
+  </si>
+  <si>
+    <t>899.0</t>
+  </si>
+  <si>
+    <t>SH2-1</t>
+  </si>
+  <si>
+    <t>SH2-2</t>
+  </si>
+  <si>
+    <t>SH2-3</t>
+  </si>
+  <si>
+    <t>SH2-4</t>
+  </si>
+  <si>
+    <t>919.5</t>
+  </si>
+  <si>
+    <t>907.4</t>
+  </si>
+  <si>
+    <t>936.3</t>
+  </si>
+  <si>
+    <t>924.3</t>
+  </si>
+  <si>
+    <t>SH3-1</t>
+  </si>
+  <si>
+    <t>SH3-2</t>
+  </si>
+  <si>
+    <t>816.0</t>
+  </si>
+  <si>
+    <t>939.1</t>
+  </si>
+  <si>
+    <t>929.6</t>
+  </si>
+  <si>
+    <t>SH4-1</t>
+  </si>
+  <si>
+    <t>SH4-2</t>
+  </si>
+  <si>
+    <t>SH4-3</t>
+  </si>
+  <si>
+    <t>SH4-4</t>
+  </si>
+  <si>
+    <t>935.1</t>
+  </si>
+  <si>
+    <t>939.3</t>
+  </si>
+  <si>
+    <t>903.7</t>
+  </si>
+  <si>
+    <t>SH5-1</t>
+  </si>
+  <si>
+    <t>922.3</t>
+  </si>
+  <si>
+    <t>SH6-1</t>
+  </si>
+  <si>
+    <t>934.9</t>
+  </si>
+  <si>
+    <t>SH7-1</t>
+  </si>
+  <si>
+    <t>SH7-2</t>
+  </si>
+  <si>
+    <t>SH7-3</t>
+  </si>
+  <si>
+    <t>SH7-4</t>
+  </si>
+  <si>
+    <t>943.5</t>
+  </si>
+  <si>
+    <t>944.3</t>
+  </si>
+  <si>
+    <t>905.8</t>
+  </si>
+  <si>
+    <t>948.0</t>
+  </si>
+  <si>
+    <t>SH8-1</t>
+  </si>
+  <si>
+    <t>928.3</t>
+  </si>
+  <si>
+    <t>SH9-1</t>
+  </si>
+  <si>
+    <t>915.2</t>
+  </si>
+  <si>
+    <t>SH9-2</t>
+  </si>
+  <si>
+    <t>SH9-3</t>
+  </si>
+  <si>
+    <t>SH9-4</t>
+  </si>
+  <si>
+    <t>928.4</t>
+  </si>
+  <si>
+    <t>923.1</t>
+  </si>
+  <si>
+    <t>SH10-1</t>
+  </si>
+  <si>
+    <t>959.6</t>
+  </si>
+  <si>
+    <t>SH11-1</t>
+  </si>
+  <si>
+    <t>SH11-2</t>
+  </si>
+  <si>
+    <t>SH11-3</t>
+  </si>
+  <si>
+    <t>SH11-4</t>
+  </si>
+  <si>
+    <t>SH11-5</t>
+  </si>
+  <si>
+    <t>SH11-6</t>
+  </si>
+  <si>
+    <t>SH11-7</t>
+  </si>
+  <si>
+    <t>SH11-8</t>
+  </si>
+  <si>
+    <t>SH11-9</t>
+  </si>
+  <si>
+    <t>SH11-10</t>
+  </si>
+  <si>
+    <t>SH11-11</t>
+  </si>
+  <si>
+    <t>SH11-12</t>
+  </si>
+  <si>
+    <t>SH11-13</t>
+  </si>
+  <si>
+    <t>SH11-14</t>
+  </si>
+  <si>
+    <t>SH11-15</t>
+  </si>
+  <si>
+    <t>936.5</t>
+  </si>
+  <si>
+    <t>924.9</t>
+  </si>
+  <si>
+    <t>955.3</t>
+  </si>
+  <si>
+    <t>823.1</t>
+  </si>
+  <si>
+    <t>876.5</t>
+  </si>
+  <si>
+    <t>948.5</t>
+  </si>
+  <si>
+    <t>944.0</t>
+  </si>
+  <si>
+    <t>953.2</t>
+  </si>
+  <si>
+    <t>956.5</t>
+  </si>
+  <si>
+    <t>927.6</t>
+  </si>
+  <si>
+    <t>951.5</t>
+  </si>
+  <si>
+    <t>822.1</t>
+  </si>
+  <si>
+    <t>858.2</t>
+  </si>
+  <si>
+    <t>785.9</t>
+  </si>
+  <si>
+    <t>928.9</t>
   </si>
   <si>
     <t>raw material</t>
@@ -36,91 +342,13 @@
     <t xml:space="preserve">flint </t>
   </si>
   <si>
-    <t>Balve</t>
-  </si>
-  <si>
     <t>lydite</t>
-  </si>
-  <si>
-    <t>FLT8-1</t>
-  </si>
-  <si>
-    <t>FLT8-2</t>
-  </si>
-  <si>
-    <t>FLT8-3</t>
-  </si>
-  <si>
-    <t>FLT8-4</t>
-  </si>
-  <si>
-    <t>FLT8-5</t>
-  </si>
-  <si>
-    <t>FLT8-6</t>
-  </si>
-  <si>
-    <t>FLT8-7</t>
-  </si>
-  <si>
-    <t>FLT8-8</t>
-  </si>
-  <si>
-    <t>FLT8-9</t>
-  </si>
-  <si>
-    <t>FLT8-10</t>
-  </si>
-  <si>
-    <t>FLT8-11</t>
-  </si>
-  <si>
-    <t>FLT8-12</t>
-  </si>
-  <si>
-    <t>LYDIT5-2</t>
-  </si>
-  <si>
-    <t>LYDIT5-3</t>
-  </si>
-  <si>
-    <t>LYDIT5-4</t>
-  </si>
-  <si>
-    <t>LYDIT5-5</t>
-  </si>
-  <si>
-    <t>LYDIT5-6</t>
-  </si>
-  <si>
-    <t>LYDIT5-7</t>
-  </si>
-  <si>
-    <t>LYDIT5-8</t>
-  </si>
-  <si>
-    <t>LYDIT5-9</t>
-  </si>
-  <si>
-    <t>LYDIT5-10</t>
-  </si>
-  <si>
-    <t>LYDIT5-11</t>
-  </si>
-  <si>
-    <t>LYDIT5-12</t>
-  </si>
-  <si>
-    <t>LYDIT5-13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,12 +386,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -465,15 +690,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C56" sqref="A56:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -484,7 +709,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -495,277 +720,574 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>961.8</v>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3">
-        <v>957.4</v>
+      <c r="C5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3">
-        <v>946.7</v>
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3">
-        <v>944.1</v>
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4">
-        <v>965</v>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="4">
-        <v>956</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3">
-        <v>964.7</v>
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3">
-        <v>960.9</v>
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3">
-        <v>960.8</v>
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
-        <v>965.4</v>
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3">
-        <v>958.6</v>
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2">
-        <v>965.4</v>
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="3">
-        <v>934.9</v>
+      <c r="C16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3">
-        <v>943.5</v>
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="3">
-        <v>905.8</v>
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="3">
-        <v>928.3</v>
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="3">
-        <v>923.1</v>
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3">
-        <v>876.5</v>
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="3">
-        <v>948.5</v>
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="4">
-        <v>944</v>
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="3">
-        <v>927.6</v>
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="3">
-        <v>951.5</v>
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="3">
-        <v>858.2</v>
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="3">
-        <v>785.9</v>
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="3">
-        <v>779</v>
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
